--- a/data/trans_orig/Q02D_FES-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/Q02D_FES-Provincia-trans_orig.xlsx
@@ -681,7 +681,7 @@
         <v>13.97335260466333</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>6.35179279170165</v>
+        <v>6.351792791701651</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>4.153393475953075</v>
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>2.73976814809518</v>
+        <v>2.631812215427565</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>7.238103790772597</v>
+        <v>7.20322024642632</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>9.148168975605184</v>
+        <v>9.049967679515037</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>3.517701653096708</v>
+        <v>3.517423837993143</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>8.508507215946047</v>
+        <v>8.507918478718546</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>12.4597930292645</v>
+        <v>12.39204295032087</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>4.873569948237875</v>
+        <v>4.822082208317824</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>3.485072542629001</v>
+        <v>3.442482604203702</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>8.235352722678781</v>
+        <v>8.276860418921203</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>11.49114355728537</v>
+        <v>11.40266218408401</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>5.171860459877597</v>
+        <v>5.059251779787184</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>5.574299796907736</v>
+        <v>5.471506277264808</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>8.898920206085512</v>
+        <v>8.862263100981108</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>12.76041136278456</v>
+        <v>12.69218044422326</v>
       </c>
       <c r="F6" s="5" t="n">
         <v>24</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>5.878284970286415</v>
+        <v>5.751043903278764</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>10.14686565608112</v>
+        <v>10.13601135090449</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>15.46977534122085</v>
+        <v>15.48411335811678</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>10.52705748320026</v>
+        <v>10.2667699381675</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>5.116490970772816</v>
+        <v>5.115540943442632</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>9.439977384560814</v>
+        <v>9.515616661553812</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>13.80418355948993</v>
+        <v>13.80447678313246</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>13.1993964643658</v>
+        <v>13.57510463290678</v>
       </c>
     </row>
     <row r="7">
@@ -829,7 +829,7 @@
         <v>16.01488342296057</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>12.12465641203426</v>
+        <v>12.12465641203427</v>
       </c>
     </row>
     <row r="8">
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>7.123333787796509</v>
+        <v>7.05450434918304</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>7.318318525842033</v>
+        <v>7.35143667250838</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>14.51961163669536</v>
+        <v>14.3504659255683</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>7.69681897215523</v>
+        <v>6.861702757403761</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>9.496335498673396</v>
+        <v>9.507516415398793</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>8.185729096711151</v>
+        <v>8.118459974827715</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>13.91984430870908</v>
+        <v>14.33406471101212</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>9.45523816903879</v>
+        <v>9.693564337820474</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>8.876630168637325</v>
+        <v>8.892509345504171</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>7.999022192137187</v>
+        <v>8.006311973076357</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>14.82577854592873</v>
+        <v>14.66354823663267</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>9.942908825816746</v>
+        <v>10.02405985646362</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>9.471900100548863</v>
+        <v>9.415276159730254</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>8.623320378817962</v>
+        <v>8.662663086629893</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>18.4742070879141</v>
+        <v>18.62035883263055</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>21.63720985604242</v>
+        <v>19.86233835738611</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>11.62931331442289</v>
+        <v>11.54707592372156</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>9.271049195460673</v>
+        <v>9.271270876848709</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>17.17395142581215</v>
+        <v>17.31143659435778</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>14.07529776040252</v>
+        <v>14.11132865663007</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>10.48156759448159</v>
+        <v>10.54858152861554</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>8.880618309830163</v>
+        <v>8.861893375373073</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>17.33558164361823</v>
+        <v>17.32663883844486</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>14.37089916387782</v>
+        <v>14.38555865174768</v>
       </c>
     </row>
     <row r="10">
@@ -941,7 +941,7 @@
         <v>11.13733439348482</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>15.87334655296401</v>
+        <v>15.873346552964</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>3.961562724733609</v>
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>1.827645730747353</v>
+        <v>1.822203499870837</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>2.930447566906032</v>
+        <v>2.939397956492641</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>9.58367572264601</v>
+        <v>9.332310333038462</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>10.17699072934531</v>
+        <v>9.15708274685311</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>3.250854163767479</v>
+        <v>3.328852300954598</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>4.250184191365935</v>
+        <v>4.226194503660909</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>11.02677900771806</v>
+        <v>11.04834738442885</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>8.644153262042947</v>
+        <v>8.690999747675445</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>2.795558101492407</v>
+        <v>2.768930176357561</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>3.829562153325293</v>
+        <v>3.822343762624</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>10.98686343929635</v>
+        <v>10.77745043785507</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>10.09494028850848</v>
+        <v>10.21172221514372</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.202159423251466</v>
+        <v>3.088853627074981</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>4.185896934324525</v>
+        <v>4.135257199297744</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>12.92166487221303</v>
+        <v>12.71714660825191</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>21.93024677788713</v>
+        <v>21.15202154066603</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>4.906213688265426</v>
+        <v>4.861165638496557</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>5.37394603934278</v>
+        <v>5.40304161750915</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>14.73845173994213</v>
+        <v>14.57461660771544</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>15.22283110212896</v>
+        <v>15.19020342050111</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>3.894518246537502</v>
+        <v>3.8392724444862</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>4.685899783541619</v>
+        <v>4.704738946613677</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>13.48052760684279</v>
+        <v>13.27932993969177</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>16.92861606321206</v>
+        <v>16.70774710837429</v>
       </c>
     </row>
     <row r="13">
@@ -1077,7 +1077,7 @@
         <v>7.898322003955482</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>10.13287483671654</v>
+        <v>10.13287483671653</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>4.715914657470806</v>
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>1.979578934045653</v>
+        <v>1.960411997663861</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>5.507052432846936</v>
+        <v>5.552670367874034</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>6.451723396616483</v>
+        <v>6.615534457782752</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>7.627260342071177</v>
+        <v>7.872884043134693</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>4.021010208754175</v>
+        <v>3.976533158361105</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>8.188717367902912</v>
+        <v>8.212141431930286</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>8.062040707494388</v>
+        <v>7.920791440916972</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>12.02676436594993</v>
+        <v>11.97901924955133</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>3.236431411588754</v>
+        <v>3.219248274763674</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>7.385177756900982</v>
+        <v>7.375720901133198</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>7.775447297140505</v>
+        <v>7.771187714782142</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>11.11778538461449</v>
+        <v>10.93559929898721</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>2.875901522199479</v>
+        <v>2.914520656323277</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>7.007841692618886</v>
+        <v>7.107343074610926</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>9.975653857930178</v>
+        <v>10.08301334087328</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>11.75113969354916</v>
+        <v>11.69454156716144</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>5.855860749878271</v>
+        <v>5.818617038184129</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>9.557935474634604</v>
+        <v>9.555582153201911</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>10.43237407975768</v>
+        <v>10.31820632774225</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>16.05583478150851</v>
+        <v>16.0492438156473</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>4.483837988772645</v>
+        <v>4.453370481107909</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>8.45387857771984</v>
+        <v>8.462849808584867</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>9.777920161254009</v>
+        <v>9.77535030671307</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>14.3775426661767</v>
+        <v>14.30514910702608</v>
       </c>
     </row>
     <row r="16">
@@ -1213,7 +1213,7 @@
         <v>3.534169865751108</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>4.325010798822113</v>
+        <v>4.325010798822112</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>10.16813781584532</v>
@@ -1225,7 +1225,7 @@
         <v>4.604960552892299</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>5.745437345380333</v>
+        <v>5.745437345380335</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>9.092542063112051</v>
@@ -1237,7 +1237,7 @@
         <v>4.115278874027006</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>4.86194197851416</v>
+        <v>4.861941978514161</v>
       </c>
     </row>
     <row r="17">
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>5.555586398164654</v>
+        <v>5.647617399070373</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>4.616449170063096</v>
+        <v>4.577233028104867</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3.179278482146802</v>
+        <v>3.138073214053517</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3.478649637790169</v>
+        <v>3.419881348890766</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>8.437116572467065</v>
+        <v>8.517943179335186</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>5.830250410548789</v>
+        <v>5.834401866755779</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>4.295271277153514</v>
+        <v>4.274891686078718</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>4.44581843004547</v>
+        <v>4.449903143738966</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>7.836983747874661</v>
+        <v>7.834446514151823</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>5.643455474329262</v>
+        <v>5.571450714193871</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3.824677059769632</v>
+        <v>3.84979991391526</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>4.058442706670329</v>
+        <v>4.045741522965183</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>9.47617271052917</v>
+        <v>9.716276234624063</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>6.518810194223409</v>
+        <v>6.661043842636302</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>4.127972253316454</v>
+        <v>4.138227319976865</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>5.340053698576594</v>
+        <v>5.22172623660987</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>11.99045852489749</v>
+        <v>11.96711848935583</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>7.527365613056862</v>
+        <v>7.669271866113271</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>5.023331434556226</v>
+        <v>5.036180910261253</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>7.040466380216837</v>
+        <v>7.080878437398646</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>10.56356081110375</v>
+        <v>10.58967077532586</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>7.028734759794611</v>
+        <v>6.907985099411079</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>4.468119125790192</v>
+        <v>4.465603222659354</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>5.67863451052784</v>
+        <v>5.66956700611326</v>
       </c>
     </row>
     <row r="19">
@@ -1384,40 +1384,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>1.977554718116945</v>
+        <v>2.013230842827597</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>2.304458866137675</v>
+        <v>2.272904231317961</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>5.450114691271954</v>
+        <v>5.508828093553125</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>10.75779961052678</v>
+        <v>10.86637247741657</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>5.741943463771185</v>
+        <v>5.810272818047747</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>3.992538590908361</v>
+        <v>4.017544019935217</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>7.353855983066659</v>
+        <v>7.30066582675157</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>10.89063620505874</v>
+        <v>11.03475806495588</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>4.103486769702516</v>
+        <v>4.151716539444537</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>3.349360928547422</v>
+        <v>3.361324736740289</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>6.733604499375968</v>
+        <v>6.813725201717947</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>11.38177640462623</v>
+        <v>11.3134835798702</v>
       </c>
     </row>
     <row r="21">
@@ -1428,40 +1428,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>2.938175632062224</v>
+        <v>2.907053965765169</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>3.242933724540095</v>
+        <v>3.248740633674454</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>7.587061193968924</v>
+        <v>7.814675612484051</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>14.90438661065437</v>
+        <v>14.88170418362303</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>9.934351434298978</v>
+        <v>9.547577461445073</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>5.14106075993007</v>
+        <v>5.17004055438229</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>10.31047399591011</v>
+        <v>10.13062735900522</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>14.93670214724524</v>
+        <v>14.8761340707033</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>6.485835251892619</v>
+        <v>6.546167146172492</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>4.175126486216261</v>
+        <v>4.203947280085855</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>8.530114766301484</v>
+        <v>8.617198444497687</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>14.16133190636637</v>
+        <v>14.35515986513217</v>
       </c>
     </row>
     <row r="22">
@@ -1497,7 +1497,7 @@
         <v>13.77406989575522</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>22.1446968370199</v>
+        <v>22.14469683701989</v>
       </c>
       <c r="K22" s="5" t="n">
         <v>4.537844050559792</v>
@@ -1520,40 +1520,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>2.848536578814505</v>
+        <v>2.814932267503485</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>3.106744152419923</v>
+        <v>3.096894854837347</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>10.90992936272792</v>
+        <v>10.94987891300469</v>
       </c>
       <c r="F23" s="5" t="n">
         <v>5</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>4.466577525360547</v>
+        <v>4.405935240595327</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>4.70775412594629</v>
+        <v>4.729465702792058</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>12.72754419147035</v>
+        <v>12.60656821873166</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>16.62701038884425</v>
+        <v>15.5186374321511</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>4.050570458616933</v>
+        <v>4.01400611035534</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>4.12364173428893</v>
+        <v>4.127840112724348</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>12.35376711548642</v>
+        <v>12.31874829368898</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>12.85924644292325</v>
+        <v>13.99236964784381</v>
       </c>
     </row>
     <row r="24">
@@ -1564,40 +1564,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>4.552801981361808</v>
+        <v>4.516049635419873</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>3.869868522842519</v>
+        <v>3.829344215672075</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>13.93034733291193</v>
+        <v>14.23177149554477</v>
       </c>
       <c r="F24" s="5" t="n">
         <v>24</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>5.970479666991325</v>
+        <v>5.846242650316071</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>5.54771265574575</v>
+        <v>5.573878169969129</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>14.93130479868188</v>
+        <v>14.86302298590078</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>27.26878196089131</v>
+        <v>27.25046464329328</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>5.186416194511486</v>
+        <v>5.211424636619631</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>4.720832607962786</v>
+        <v>4.692161049110513</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>14.16180356330772</v>
+        <v>14.12763128793372</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>25.27484859248538</v>
+        <v>25.2671351661098</v>
       </c>
     </row>
     <row r="25">
@@ -1621,7 +1621,7 @@
         <v>4.962565998753907</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>5.062711244365905</v>
+        <v>5.062711244365904</v>
       </c>
       <c r="G25" s="5" t="n">
         <v>10.91214610027624</v>
@@ -1656,40 +1656,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>7.165954873313925</v>
+        <v>7.160503401287335</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>5.70703427249943</v>
+        <v>5.75046590618799</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>4.551045377812941</v>
+        <v>4.517568243627506</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>4.667374755517092</v>
+        <v>4.639933135118206</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>9.957272889699658</v>
+        <v>9.947918372634712</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>7.549550428569265</v>
+        <v>7.577277380630074</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>6.192686428921835</v>
+        <v>6.155655731306211</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>6.212465402967905</v>
+        <v>6.149286903011126</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>9.115004254321406</v>
+        <v>9.120310411874502</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>7.03051621807533</v>
+        <v>7.028703270302927</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>5.565692414349487</v>
+        <v>5.645505109117047</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>5.697441614766461</v>
+        <v>5.680324807416571</v>
       </c>
     </row>
     <row r="27">
@@ -1700,40 +1700,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>9.44188471740067</v>
+        <v>9.455264445210982</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>6.816434299997677</v>
+        <v>6.873082327526363</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>5.498016303233113</v>
+        <v>5.495928836241752</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>5.4660366981526</v>
+        <v>5.473133284199643</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>11.82329147380148</v>
+        <v>11.8856370910605</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>8.450055915931017</v>
+        <v>8.387179351455284</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>7.137031927136545</v>
+        <v>7.130066485813278</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>7.127236995106794</v>
+        <v>7.080435133077243</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>10.61112374571961</v>
+        <v>10.62507715407207</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>7.674476926384832</v>
+        <v>7.682299628659186</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>6.315213078347957</v>
+        <v>6.327562650079006</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>6.362701025174826</v>
+        <v>6.359731968701405</v>
       </c>
     </row>
     <row r="28">
@@ -1757,7 +1757,7 @@
         <v>8.484945099826206</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>7.184918961921191</v>
+        <v>7.18491896192119</v>
       </c>
       <c r="G28" s="5" t="n">
         <v>7.144018470582281</v>
@@ -1792,40 +1792,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>4.444556658695483</v>
+        <v>4.435657810880872</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>5.169062918960689</v>
+        <v>5.154888059410511</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>7.961173967358907</v>
+        <v>7.956679057176342</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>6.46999737964731</v>
+        <v>6.436077809778792</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>6.749282087510609</v>
+        <v>6.758316678612444</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>6.919100734917217</v>
+        <v>6.916897451944541</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>9.745534331367711</v>
+        <v>9.755479310012657</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>8.285116626017684</v>
+        <v>8.315578853944455</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>5.93504329396911</v>
+        <v>5.972975050456198</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>6.2924648231404</v>
+        <v>6.283419198438186</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>9.180324749347042</v>
+        <v>9.16136553030073</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>7.747716908351317</v>
+        <v>7.788707262268822</v>
       </c>
     </row>
     <row r="30">
@@ -1836,40 +1836,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>5.339652413452532</v>
+        <v>5.266582938386034</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>5.668374495958709</v>
+        <v>5.66783657907555</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>9.031587400246673</v>
+        <v>9.054922447685641</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>8.088411446332389</v>
+        <v>8.074255136778943</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>7.575041047217526</v>
+        <v>7.553634124685706</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>7.374609249909952</v>
+        <v>7.372501706030187</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>10.65456028754773</v>
+        <v>10.66123852201857</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>9.586879020601378</v>
+        <v>9.597275522440672</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>6.539795442665283</v>
+        <v>6.561815966157126</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>6.639409049352906</v>
+        <v>6.64033888627689</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>9.872083708704471</v>
+        <v>9.864532353430334</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>8.755775639912372</v>
+        <v>8.790076518169693</v>
       </c>
     </row>
     <row r="31">
